--- a/eclipse-workspace/test-files/writer-demo/Students.xlsx
+++ b/eclipse-workspace/test-files/writer-demo/Students.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,9 +468,6 @@
       <c r="E4">
         <v>3.3333330000000001</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -484,9 +481,6 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>2.2222219999999999</v>
       </c>
       <c r="F5">
         <v>9</v>
